--- a/Resource spawning.xlsx
+++ b/Resource spawning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingemras\AppData\Roaming\Factorio\mods\ProductionHubs_0.0.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingemras\AppData\Roaming\Factorio\mods\ProductionHubs_1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08A925E-95C3-4EBE-956E-46811D812D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F578D65-10E0-4B40-8483-8E1A496BACCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="3" xr2:uid="{8780D82E-0CBF-4A71-822A-5D0C3D799BC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{8780D82E-0CBF-4A71-822A-5D0C3D799BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Resource spawning" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="376">
   <si>
     <t>spot radius</t>
   </si>
@@ -1137,6 +1137,51 @@
   </si>
   <si>
     <t>Vanilla</t>
+  </si>
+  <si>
+    <t>+spawn on average one base per 256x256</t>
+  </si>
+  <si>
+    <t>spawn 1-4 bases per 512x512 in begining, decresing to always 1 at distance 10 000 from starting point</t>
+  </si>
+  <si>
+    <t>bases at least 150 apart</t>
+  </si>
+  <si>
+    <t>bases are 10 radius in the begining, increasing to 70 radius at distance 10 000 from starting point</t>
+  </si>
+  <si>
+    <t>starting base is 20 radius</t>
+  </si>
+  <si>
+    <t>dist = x * x + y * y</t>
+  </si>
+  <si>
+    <t>radius = dist / 10000 * 60 + 10</t>
+  </si>
+  <si>
+    <t>quantity = radius * radius * pi * 0.1</t>
+  </si>
+  <si>
+    <t>density = (10000-dist+3000)/3000 * quantity / region size / region size</t>
+  </si>
+  <si>
+    <t>desired quantity = region size * region size * density</t>
+  </si>
+  <si>
+    <t>desired quantity = spots * quantity</t>
+  </si>
+  <si>
+    <t>spots = 4 when dist = 0, 1 when dist = 10000</t>
+  </si>
+  <si>
+    <t>spots = (10000-dist+3000)/3000</t>
+  </si>
+  <si>
+    <t>spots * quantity = region size * region size * density</t>
+  </si>
+  <si>
+    <t>density = spots * quantity / region size / region size</t>
   </si>
 </sst>
 </file>
@@ -1206,10 +1251,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1221,9 +1265,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1545,7 +1586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1553,10 +1594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84C6139-00F7-4A89-BD28-40A70FB46D12}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:Q13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1644,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <f>B7*B5/B3/B3</f>
         <v>1.8310546875E-2</v>
       </c>
@@ -1661,25 +1702,104 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="261" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>366</v>
+      </c>
+      <c r="M21">
+        <f>1024/32</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>375</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1703,7 +1823,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
@@ -1714,7 +1834,7 @@
       <c r="A1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C1" t="s">
@@ -1749,7 +1869,7 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="str">
+      <c r="B2" s="4" t="str">
         <f t="shared" ref="B2:B33" si="0">HYPERLINK(A2)</f>
         <v>https://wiki.factorio.com/Automation_(research)</v>
       </c>
@@ -1785,7 +1905,7 @@
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="5" t="str">
+      <c r="B3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Military_(research)</v>
       </c>
@@ -1821,7 +1941,7 @@
       <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="5" t="str">
+      <c r="B4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Stone_wall_(research)</v>
       </c>
@@ -1857,7 +1977,7 @@
       <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Gun_turret_(research)</v>
       </c>
@@ -1893,7 +2013,7 @@
       <c r="A6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Optics_(research)</v>
       </c>
@@ -1929,7 +2049,7 @@
       <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Logistics_(research)</v>
       </c>
@@ -1965,7 +2085,7 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Fast_inserter_(research)</v>
       </c>
@@ -2001,7 +2121,7 @@
       <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="5" t="str">
+      <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Heavy_armor_(research)</v>
       </c>
@@ -2037,7 +2157,7 @@
       <c r="A10" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Electronics_(research)</v>
       </c>
@@ -2073,7 +2193,7 @@
       <c r="A11" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="5" t="str">
+      <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Steel_axe_(research)</v>
       </c>
@@ -2109,7 +2229,7 @@
       <c r="A12" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="5" t="str">
+      <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Steel_processing_(research)</v>
       </c>
@@ -2145,7 +2265,7 @@
       <c r="A13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="5" t="str">
+      <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Logistic_science_pack_(research)</v>
       </c>
@@ -2181,7 +2301,7 @@
       <c r="A14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="5" t="str">
+      <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Physical_projectile_damage_(research)</v>
       </c>
@@ -2217,7 +2337,7 @@
       <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="5" t="str">
+      <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Weapon_shooting_speed_(research)</v>
       </c>
@@ -2253,7 +2373,7 @@
       <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="5" t="str">
+      <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Military_2_(research)</v>
       </c>
@@ -2289,7 +2409,7 @@
       <c r="A17" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="5" t="str">
+      <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Military_science_pack_(research)</v>
       </c>
@@ -2325,7 +2445,7 @@
       <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5" t="str">
+      <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Automation_2_(research)</v>
       </c>
@@ -2361,7 +2481,7 @@
       <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="5" t="str">
+      <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Fluid_handling_(research)</v>
       </c>
@@ -2397,7 +2517,7 @@
       <c r="A20" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="5" t="str">
+      <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Flammables_(research)</v>
       </c>
@@ -2433,7 +2553,7 @@
       <c r="A21" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="5" t="str">
+      <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Landfill_(research)</v>
       </c>
@@ -2469,7 +2589,7 @@
       <c r="A22" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="5" t="str">
+      <c r="B22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Belt_immunity_equipment_(research)</v>
       </c>
@@ -2505,7 +2625,7 @@
       <c r="A23" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="5" t="str">
+      <c r="B23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Nightvision_equipment_(research)</v>
       </c>
@@ -2541,7 +2661,7 @@
       <c r="A24" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="5" t="str">
+      <c r="B24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Personal_battery_(research)</v>
       </c>
@@ -2577,7 +2697,7 @@
       <c r="A25" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="5" t="str">
+      <c r="B25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Efficiency_module_(research)</v>
       </c>
@@ -2613,7 +2733,7 @@
       <c r="A26" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="5" t="str">
+      <c r="B26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Productivity_module_(research)</v>
       </c>
@@ -2649,7 +2769,7 @@
       <c r="A27" t="s">
         <v>152</v>
       </c>
-      <c r="B27" s="5" t="str">
+      <c r="B27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Speed_module_(research)</v>
       </c>
@@ -2685,7 +2805,7 @@
       <c r="A28" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="5" t="str">
+      <c r="B28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Advanced_material_processing_(research)</v>
       </c>
@@ -2721,7 +2841,7 @@
       <c r="A29" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Chemical_science_pack_(research)</v>
       </c>
@@ -2757,7 +2877,7 @@
       <c r="A30" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Automated_rail_transportation_(research)</v>
       </c>
@@ -2793,7 +2913,7 @@
       <c r="A31" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Railway_(research)</v>
       </c>
@@ -2829,7 +2949,7 @@
       <c r="A32" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Oil_processing_(research)</v>
       </c>
@@ -2865,7 +2985,7 @@
       <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="5" t="str">
+      <c r="B33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>https://wiki.factorio.com/Lab_research_speed_(research)</v>
       </c>
@@ -2901,7 +3021,7 @@
       <c r="A34" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="5" t="str">
+      <c r="B34" s="4" t="str">
         <f t="shared" ref="B34:B65" si="1">HYPERLINK(A34)</f>
         <v>https://wiki.factorio.com/Stronger_explosives_(research)</v>
       </c>
@@ -2937,7 +3057,7 @@
       <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="5" t="str">
+      <c r="B35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Toolbelt_(research)</v>
       </c>
@@ -2973,7 +3093,7 @@
       <c r="A36" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="5" t="str">
+      <c r="B36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Modular_armor_(research)</v>
       </c>
@@ -3009,7 +3129,7 @@
       <c r="A37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="5" t="str">
+      <c r="B37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Gate_(research)</v>
       </c>
@@ -3045,7 +3165,7 @@
       <c r="A38" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="5" t="str">
+      <c r="B38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Circuit_network_(research)</v>
       </c>
@@ -3081,7 +3201,7 @@
       <c r="A39" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="5" t="str">
+      <c r="B39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Engine_(research)</v>
       </c>
@@ -3117,7 +3237,7 @@
       <c r="A40" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="5" t="str">
+      <c r="B40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Explosives_(research)</v>
       </c>
@@ -3153,7 +3273,7 @@
       <c r="A41" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="5" t="str">
+      <c r="B41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Automobilism_(research)</v>
       </c>
@@ -3189,7 +3309,7 @@
       <c r="A42" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="5" t="str">
+      <c r="B42" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Rail_signals_(research)</v>
       </c>
@@ -3225,7 +3345,7 @@
       <c r="A43" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="5" t="str">
+      <c r="B43" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Portable_solar_panel_(research)</v>
       </c>
@@ -3261,7 +3381,7 @@
       <c r="A44" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="5" t="str">
+      <c r="B44" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Modules_(research)</v>
       </c>
@@ -3297,7 +3417,7 @@
       <c r="A45" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="5" t="str">
+      <c r="B45" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Electric_energy_distribution_1_(research)</v>
       </c>
@@ -3333,7 +3453,7 @@
       <c r="A46" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="5" t="str">
+      <c r="B46" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Electric_energy_accumulators_(research)</v>
       </c>
@@ -3369,7 +3489,7 @@
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="5" t="str">
+      <c r="B47" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Stack_inserter_(research)</v>
       </c>
@@ -3405,7 +3525,7 @@
       <c r="A48" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="5" t="str">
+      <c r="B48" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Battery_(research)</v>
       </c>
@@ -3441,7 +3561,7 @@
       <c r="A49" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="5" t="str">
+      <c r="B49" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Sulfur_processing_(research)</v>
       </c>
@@ -3477,7 +3597,7 @@
       <c r="A50" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="5" t="str">
+      <c r="B50" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Advanced_electronics_(research)</v>
       </c>
@@ -3513,7 +3633,7 @@
       <c r="A51" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="5" t="str">
+      <c r="B51" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Logistics_2_(research)</v>
       </c>
@@ -3549,7 +3669,7 @@
       <c r="A52" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="5" t="str">
+      <c r="B52" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Inserter_capacity_bonus_(research)</v>
       </c>
@@ -3585,7 +3705,7 @@
       <c r="A53" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="5" t="str">
+      <c r="B53" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Cliff_explosives_(research)</v>
       </c>
@@ -3621,7 +3741,7 @@
       <c r="A54" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="5" t="str">
+      <c r="B54" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Plastics_(research)</v>
       </c>
@@ -3657,7 +3777,7 @@
       <c r="A55" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="5" t="str">
+      <c r="B55" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Fluid_wagon_(research)</v>
       </c>
@@ -3693,7 +3813,7 @@
       <c r="A56" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="5" t="str">
+      <c r="B56" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Solar_energy_(research)</v>
       </c>
@@ -3729,7 +3849,7 @@
       <c r="A57" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="5" t="str">
+      <c r="B57" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Mining_productivity_(research)</v>
       </c>
@@ -3765,7 +3885,7 @@
       <c r="A58" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="5" t="str">
+      <c r="B58" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Concrete_(research)</v>
       </c>
@@ -3801,7 +3921,7 @@
       <c r="A59" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="5" t="str">
+      <c r="B59" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Flamethrower_(research)</v>
       </c>
@@ -3837,7 +3957,7 @@
       <c r="A60" t="s">
         <v>41</v>
       </c>
-      <c r="B60" s="5" t="str">
+      <c r="B60" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Defender_(research)</v>
       </c>
@@ -3873,7 +3993,7 @@
       <c r="A61" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="5" t="str">
+      <c r="B61" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Refined_flammables_(research)</v>
       </c>
@@ -3909,7 +4029,7 @@
       <c r="A62" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="5" t="str">
+      <c r="B62" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Land_mines_(research)</v>
       </c>
@@ -3945,7 +4065,7 @@
       <c r="A63" t="s">
         <v>49</v>
       </c>
-      <c r="B63" s="5" t="str">
+      <c r="B63" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Rocketry_(research)</v>
       </c>
@@ -3981,7 +4101,7 @@
       <c r="A64" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="5" t="str">
+      <c r="B64" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Energy_shield_equipment_(research)</v>
       </c>
@@ -4017,7 +4137,7 @@
       <c r="A65" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="5" t="str">
+      <c r="B65" s="4" t="str">
         <f t="shared" si="1"/>
         <v>https://wiki.factorio.com/Follower_robot_count_(research)</v>
       </c>
@@ -4053,7 +4173,7 @@
       <c r="A66" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="5" t="str">
+      <c r="B66" s="4" t="str">
         <f t="shared" ref="B66:B97" si="2">HYPERLINK(A66)</f>
         <v>https://wiki.factorio.com/Worker_robot_speed_(research)</v>
       </c>
@@ -4089,7 +4209,7 @@
       <c r="A67" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="5" t="str">
+      <c r="B67" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Electric_engine_(research)</v>
       </c>
@@ -4125,7 +4245,7 @@
       <c r="A68" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="5" t="str">
+      <c r="B68" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Lubricant_(research)</v>
       </c>
@@ -4161,7 +4281,7 @@
       <c r="A69" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="5" t="str">
+      <c r="B69" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Exoskeleton_equipment_(research)</v>
       </c>
@@ -4197,7 +4317,7 @@
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="5" t="str">
+      <c r="B70" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Personal_roboport_(research)</v>
       </c>
@@ -4233,7 +4353,7 @@
       <c r="A71" t="s">
         <v>63</v>
       </c>
-      <c r="B71" s="5" t="str">
+      <c r="B71" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Laser_shooting_speed_(research)</v>
       </c>
@@ -4269,7 +4389,7 @@
       <c r="A72" t="s">
         <v>87</v>
       </c>
-      <c r="B72" s="5" t="str">
+      <c r="B72" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Advanced_oil_processing_(research)</v>
       </c>
@@ -4305,7 +4425,7 @@
       <c r="A73" t="s">
         <v>111</v>
       </c>
-      <c r="B73" s="5" t="str">
+      <c r="B73" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Robotics_(research)</v>
       </c>
@@ -4341,7 +4461,7 @@
       <c r="A74" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="5" t="str">
+      <c r="B74" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Efficiency_module_2_(research)</v>
       </c>
@@ -4377,7 +4497,7 @@
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="5" t="str">
+      <c r="B75" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Productivity_module_2_(research)</v>
       </c>
@@ -4413,7 +4533,7 @@
       <c r="A76" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="5" t="str">
+      <c r="B76" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Speed_module_2_(research)</v>
       </c>
@@ -4449,7 +4569,7 @@
       <c r="A77" t="s">
         <v>29</v>
       </c>
-      <c r="B77" s="5" t="str">
+      <c r="B77" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Electric_energy_distribution_2_(research)</v>
       </c>
@@ -4485,7 +4605,7 @@
       <c r="A78" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="5" t="str">
+      <c r="B78" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Braking_force_(research)</v>
       </c>
@@ -4521,7 +4641,7 @@
       <c r="A79" t="s">
         <v>71</v>
       </c>
-      <c r="B79" s="5" t="str">
+      <c r="B79" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Construction_robotics_(research)</v>
       </c>
@@ -4557,7 +4677,7 @@
       <c r="A80" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="5" t="str">
+      <c r="B80" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Laser_(research)</v>
       </c>
@@ -4593,7 +4713,7 @@
       <c r="A81" t="s">
         <v>110</v>
       </c>
-      <c r="B81" s="5" t="str">
+      <c r="B81" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Production_science_pack_(research)</v>
       </c>
@@ -4626,10 +4746,10 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="5" t="str">
+      <c r="B82" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Utility_science_pack_(research)</v>
       </c>
@@ -4665,7 +4785,7 @@
       <c r="A83" t="s">
         <v>137</v>
       </c>
-      <c r="B83" s="5" t="str">
+      <c r="B83" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Personal_battery_MK2_(research)</v>
       </c>
@@ -4701,7 +4821,7 @@
       <c r="A84" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="5" t="str">
+      <c r="B84" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Military_3_(research)</v>
       </c>
@@ -4737,7 +4857,7 @@
       <c r="A85" t="s">
         <v>50</v>
       </c>
-      <c r="B85" s="5" t="str">
+      <c r="B85" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Explosive_rocketry_(research)</v>
       </c>
@@ -4773,7 +4893,7 @@
       <c r="A86" t="s">
         <v>59</v>
       </c>
-      <c r="B86" s="5" t="str">
+      <c r="B86" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Energy_weapons_damage_(research)</v>
       </c>
@@ -4809,7 +4929,7 @@
       <c r="A87" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="5" t="str">
+      <c r="B87" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Discharge_defense_(research)</v>
       </c>
@@ -4842,10 +4962,10 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B88" s="5" t="str">
+      <c r="B88" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Personal_laser_defense_(research)</v>
       </c>
@@ -4881,7 +5001,7 @@
       <c r="A89" t="s">
         <v>83</v>
       </c>
-      <c r="B89" s="5" t="str">
+      <c r="B89" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Laser_turret_(research)</v>
       </c>
@@ -4917,7 +5037,7 @@
       <c r="A90" t="s">
         <v>69</v>
       </c>
-      <c r="B90" s="5" t="str">
+      <c r="B90" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Worker_robot_cargo_size_(research)</v>
       </c>
@@ -4953,7 +5073,7 @@
       <c r="A91" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="5" t="str">
+      <c r="B91" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Power_armor_(research)</v>
       </c>
@@ -4989,7 +5109,7 @@
       <c r="A92" t="s">
         <v>117</v>
       </c>
-      <c r="B92" s="5" t="str">
+      <c r="B92" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Uranium_processing_(research)</v>
       </c>
@@ -5025,7 +5145,7 @@
       <c r="A93" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="5" t="str">
+      <c r="B93" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Distractor_(research)</v>
       </c>
@@ -5061,7 +5181,7 @@
       <c r="A94" t="s">
         <v>133</v>
       </c>
-      <c r="B94" s="5" t="str">
+      <c r="B94" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Energy_shield_MK2_equipment_(research)</v>
       </c>
@@ -5097,7 +5217,7 @@
       <c r="A95" t="s">
         <v>72</v>
       </c>
-      <c r="B95" s="5" t="str">
+      <c r="B95" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Logistic_robotics_(research)</v>
       </c>
@@ -5133,7 +5253,7 @@
       <c r="A96" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="5" t="str">
+      <c r="B96" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Advanced_material_processing_2_(research)</v>
       </c>
@@ -5169,7 +5289,7 @@
       <c r="A97" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="5" t="str">
+      <c r="B97" s="4" t="str">
         <f t="shared" si="2"/>
         <v>https://wiki.factorio.com/Tank_(research)</v>
       </c>
@@ -5205,7 +5325,7 @@
       <c r="A98" t="s">
         <v>23</v>
       </c>
-      <c r="B98" s="5" t="str">
+      <c r="B98" s="4" t="str">
         <f t="shared" ref="B98:B125" si="3">HYPERLINK(A98)</f>
         <v>https://wiki.factorio.com/Advanced_electronics_2_(research)</v>
       </c>
@@ -5241,7 +5361,7 @@
       <c r="A99" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="5" t="str">
+      <c r="B99" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Low_density_structure_(research)</v>
       </c>
@@ -5277,7 +5397,7 @@
       <c r="A100" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="5" t="str">
+      <c r="B100" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Rocket_fuel_(research)</v>
       </c>
@@ -5313,7 +5433,7 @@
       <c r="A101" t="s">
         <v>35</v>
       </c>
-      <c r="B101" s="5" t="str">
+      <c r="B101" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Nuclear_power_(research)</v>
       </c>
@@ -5349,7 +5469,7 @@
       <c r="A102" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="5" t="str">
+      <c r="B102" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Nuclear_fuel_reprocessing_(research)</v>
       </c>
@@ -5385,7 +5505,7 @@
       <c r="A103" t="s">
         <v>145</v>
       </c>
-      <c r="B103" s="5" t="str">
+      <c r="B103" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Effect_transmission_(research)</v>
       </c>
@@ -5421,7 +5541,7 @@
       <c r="A104" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="5" t="str">
+      <c r="B104" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Automation_3_(research)</v>
       </c>
@@ -5457,7 +5577,7 @@
       <c r="A105" t="s">
         <v>34</v>
       </c>
-      <c r="B105" s="5" t="str">
+      <c r="B105" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Logistics_3_(research)</v>
       </c>
@@ -5493,7 +5613,7 @@
       <c r="A106" t="s">
         <v>148</v>
       </c>
-      <c r="B106" s="5" t="str">
+      <c r="B106" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Efficiency_module_3_(research)</v>
       </c>
@@ -5529,7 +5649,7 @@
       <c r="A107" t="s">
         <v>151</v>
       </c>
-      <c r="B107" s="5" t="str">
+      <c r="B107" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Productivity_module_3_(research)</v>
       </c>
@@ -5565,7 +5685,7 @@
       <c r="A108" t="s">
         <v>154</v>
       </c>
-      <c r="B108" s="5" t="str">
+      <c r="B108" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Speed_module_3_(research)</v>
       </c>
@@ -5601,7 +5721,7 @@
       <c r="A109" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="5" t="str">
+      <c r="B109" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Kovarex_enrichment_process_(research)</v>
       </c>
@@ -5637,7 +5757,7 @@
       <c r="A110" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="5" t="str">
+      <c r="B110" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Coal_liquefaction_(research)</v>
       </c>
@@ -5673,7 +5793,7 @@
       <c r="A111" t="s">
         <v>40</v>
       </c>
-      <c r="B111" s="5" t="str">
+      <c r="B111" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Atomic_bomb_(research)</v>
       </c>
@@ -5709,7 +5829,7 @@
       <c r="A112" t="s">
         <v>48</v>
       </c>
-      <c r="B112" s="5" t="str">
+      <c r="B112" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Military_4_(research)</v>
       </c>
@@ -5745,7 +5865,7 @@
       <c r="A113" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="5" t="str">
+      <c r="B113" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Portable_fusion_reactor_(research)</v>
       </c>
@@ -5781,7 +5901,7 @@
       <c r="A114" t="s">
         <v>141</v>
       </c>
-      <c r="B114" s="5" t="str">
+      <c r="B114" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Personal_roboport_MK2_(research)</v>
       </c>
@@ -5817,7 +5937,7 @@
       <c r="A115" t="s">
         <v>112</v>
       </c>
-      <c r="B115" s="5" t="str">
+      <c r="B115" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Rocket_control_unit_(research)</v>
       </c>
@@ -5853,7 +5973,7 @@
       <c r="A116" t="s">
         <v>43</v>
       </c>
-      <c r="B116" s="5" t="str">
+      <c r="B116" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Destroyer_(research)</v>
       </c>
@@ -5889,7 +6009,7 @@
       <c r="A117" t="s">
         <v>78</v>
       </c>
-      <c r="B117" s="5" t="str">
+      <c r="B117" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Power_armor_MK2_(research)</v>
       </c>
@@ -5925,7 +6045,7 @@
       <c r="A118" t="s">
         <v>103</v>
       </c>
-      <c r="B118" s="5" t="str">
+      <c r="B118" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Logistic_system_(research)</v>
       </c>
@@ -5961,7 +6081,7 @@
       <c r="A119" t="s">
         <v>51</v>
       </c>
-      <c r="B119" s="5" t="str">
+      <c r="B119" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Uranium_ammo_(research)</v>
       </c>
@@ -5997,7 +6117,7 @@
       <c r="A120" t="s">
         <v>37</v>
       </c>
-      <c r="B120" s="5" t="str">
+      <c r="B120" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Rocket_silo_(research)</v>
       </c>
@@ -6033,7 +6153,7 @@
       <c r="A121" t="s">
         <v>84</v>
       </c>
-      <c r="B121" s="5" t="str">
+      <c r="B121" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Artillery_(research)</v>
       </c>
@@ -6069,7 +6189,7 @@
       <c r="A122" t="s">
         <v>114</v>
       </c>
-      <c r="B122" s="5" t="str">
+      <c r="B122" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Space_science_pack_(research)</v>
       </c>
@@ -6105,7 +6225,7 @@
       <c r="A123" t="s">
         <v>125</v>
       </c>
-      <c r="B123" s="5" t="str">
+      <c r="B123" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Spidertron_(research)</v>
       </c>
@@ -6141,7 +6261,7 @@
       <c r="A124" t="s">
         <v>52</v>
       </c>
-      <c r="B124" s="5" t="str">
+      <c r="B124" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Artillery_shell_range_(research)</v>
       </c>
@@ -6177,7 +6297,7 @@
       <c r="A125" t="s">
         <v>53</v>
       </c>
-      <c r="B125" s="5" t="str">
+      <c r="B125" s="4" t="str">
         <f t="shared" si="3"/>
         <v>https://wiki.factorio.com/Artillery_shell_shooting_speed_(research)</v>
       </c>
@@ -6241,22 +6361,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="9"/>
+      <c r="G1" s="8"/>
       <c r="H1" t="s">
         <v>291</v>
       </c>
@@ -7758,19 +7878,19 @@
       <c r="A12" t="s">
         <v>280</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>1070</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>535</v>
       </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7778,19 +7898,19 @@
       <c r="A13" t="s">
         <v>281</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>36075</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>12025</v>
       </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7798,19 +7918,19 @@
       <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>11890</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>4100</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>4100</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>8200</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7818,19 +7938,19 @@
       <c r="A15" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>116212.5</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>58125</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>14962.5</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>13500</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <v>210568.5</v>
       </c>
     </row>
@@ -7838,19 +7958,19 @@
       <c r="A16" t="s">
         <v>283</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>753200</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>303470.75</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>73179.25</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>166408.25</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>1065729</v>
       </c>
     </row>
@@ -7858,19 +7978,19 @@
       <c r="A17" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>894598</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>756008</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>107563</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>129685</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>1916270</v>
       </c>
     </row>
@@ -7878,19 +7998,19 @@
       <c r="A18" t="s">
         <v>285</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>469480</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>656480</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>81120</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>40000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>1808880</v>
       </c>
     </row>
@@ -7898,23 +8018,23 @@
       <c r="A19" t="s">
         <v>298</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <f>SUM(B12:B18)</f>
         <v>2282525.5</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f t="shared" ref="C19:F19" si="60">SUM(C12:C18)</f>
         <v>1790743.75</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <f t="shared" si="60"/>
         <v>280924.75</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f t="shared" si="60"/>
         <v>357793.25</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="60"/>
         <v>5001447.5</v>
       </c>
@@ -7928,23 +8048,23 @@
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="7">
         <f>B12/$A23/60</f>
         <v>8.9166666666666661</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <f t="shared" ref="C23:F23" si="61">C12/$A23/60</f>
         <v>4.458333333333333</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
@@ -7958,19 +8078,19 @@
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <f>(B13+B14)/$A25/60</f>
         <v>99.927083333333329</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="7">
         <f t="shared" ref="C25:E25" si="62">(C13+C14)/$A25/60</f>
         <v>33.59375</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <f t="shared" si="62"/>
         <v>8.5416666666666661</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <f t="shared" si="62"/>
         <v>17.083333333333332</v>
       </c>
@@ -7984,19 +8104,19 @@
       <c r="A27">
         <v>16</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <f>B15/$A27/60</f>
         <v>121.0546875</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="7">
         <f t="shared" ref="C27:E27" si="63">C15/$A27/60</f>
         <v>60.546875</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <f t="shared" si="63"/>
         <v>15.5859375</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f t="shared" si="63"/>
         <v>14.0625</v>
       </c>
@@ -8010,19 +8130,19 @@
       <c r="A29">
         <v>24</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="7">
         <f>B16/$A29/60</f>
         <v>523.05555555555554</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="7">
         <f t="shared" ref="C29:E29" si="64">C16/$A29/60</f>
         <v>210.7435763888889</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <f t="shared" si="64"/>
         <v>50.81892361111111</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <f t="shared" si="64"/>
         <v>115.56128472222221</v>
       </c>
@@ -8036,19 +8156,19 @@
       <c r="A31">
         <v>32</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="7">
         <f>B17/$A31/60</f>
         <v>465.93645833333335</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <f t="shared" ref="C31:E31" si="65">C17/$A31/60</f>
         <v>393.75416666666666</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <f t="shared" si="65"/>
         <v>56.022395833333334</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <f t="shared" si="65"/>
         <v>67.544270833333329</v>
       </c>
@@ -8062,19 +8182,19 @@
       <c r="A33">
         <v>40</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="7">
         <f>B18/$A33/60</f>
         <v>195.61666666666667</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <f t="shared" ref="C33:E33" si="66">C18/$A33/60</f>
         <v>273.53333333333336</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <f t="shared" si="66"/>
         <v>33.799999999999997</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <f t="shared" si="66"/>
         <v>16.666666666666668</v>
       </c>
@@ -8094,7 +8214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F349F5A-80C3-4E7F-8CDA-C2B393D40544}">
   <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N10" sqref="M9:N10"/>
     </sheetView>
   </sheetViews>
@@ -8124,32 +8244,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="15" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8158,66 +8278,66 @@
       <c r="B2" t="s">
         <v>307</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="8" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8999,69 +9119,69 @@
       <c r="A15" t="s">
         <v>299</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
       <c r="Q15" t="s">
         <v>311</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="T15" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="U15" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="V15" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="W15" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="X15" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="Y15" s="9" t="s">
+      <c r="Y15" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="AA15" s="9" t="s">
+      <c r="AA15" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="AB15" s="9" t="s">
+      <c r="AB15" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="AC15" s="9" t="s">
+      <c r="AC15" s="8" t="s">
         <v>288</v>
       </c>
     </row>
@@ -9069,63 +9189,63 @@
       <c r="A16" t="s">
         <v>280</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="10">
         <v>1070</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>535</v>
       </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12">
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <f>SUM(B16:C16,E16)</f>
         <v>1605</v>
       </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
       <c r="Q16">
         <v>1</v>
       </c>
-      <c r="R16" s="13">
+      <c r="R16" s="11">
         <v>4</v>
       </c>
-      <c r="S16" s="12">
+      <c r="S16" s="10">
         <v>500</v>
       </c>
-      <c r="T16" s="12">
+      <c r="T16" s="10">
         <v>1000</v>
       </c>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12">
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10">
         <f>SUM(S16:T16,V16)</f>
         <v>1500</v>
       </c>
-      <c r="AA16" s="12">
+      <c r="AA16" s="10">
         <f>B16+S16</f>
         <v>1570</v>
       </c>
-      <c r="AB16" s="12">
+      <c r="AB16" s="10">
         <f>C16+T16</f>
         <v>1535</v>
       </c>
-      <c r="AC16" s="12">
+      <c r="AC16" s="10">
         <f>E16+V16</f>
         <v>0</v>
       </c>
@@ -9134,34 +9254,34 @@
       <c r="A17" t="s">
         <v>281</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>36075</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>12025</v>
       </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12">
+      <c r="D17" s="10">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <f t="shared" ref="H17:H22" si="37">SUM(B17:C17,E17)</f>
         <v>48100</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
       <c r="Q17">
         <f>Q16+4</f>
         <v>5</v>
@@ -9169,52 +9289,52 @@
       <c r="R17" t="s">
         <v>321</v>
       </c>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12">
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10">
         <f t="shared" ref="Y17:Y20" si="38">SUM(S17:T17,V17)</f>
         <v>0</v>
       </c>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="10">
         <v>11890</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>4100</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>4100</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>8200</v>
       </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12">
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <f>SUM(B18:C18,E18)+H17</f>
         <v>72290</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
       <c r="Q18">
         <f>Q17</f>
         <v>5</v>
@@ -9222,33 +9342,33 @@
       <c r="R18" t="s">
         <v>321</v>
       </c>
-      <c r="S18" s="12">
+      <c r="S18" s="10">
         <v>1000</v>
       </c>
-      <c r="T18" s="12">
+      <c r="T18" s="10">
         <v>32000</v>
       </c>
-      <c r="U18" s="12">
+      <c r="U18" s="10">
         <v>4100</v>
       </c>
-      <c r="V18" s="12">
+      <c r="V18" s="10">
         <v>39000</v>
       </c>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12">
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10">
         <f t="shared" si="38"/>
         <v>72000</v>
       </c>
-      <c r="AA18" s="12">
+      <c r="AA18" s="10">
         <f>B18+S18+B17</f>
         <v>48965</v>
       </c>
-      <c r="AB18" s="12">
+      <c r="AB18" s="10">
         <f>C18+T18+C17</f>
         <v>48125</v>
       </c>
-      <c r="AC18" s="12">
+      <c r="AC18" s="10">
         <f>E18+V18+E17</f>
         <v>47200</v>
       </c>
@@ -9257,34 +9377,34 @@
       <c r="A19" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>116212.5</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>58125</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>14962.5</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>13500</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="10">
         <v>210568.5</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <f t="shared" si="37"/>
         <v>187837.5</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
       <c r="Q19">
         <f>Q18+5</f>
         <v>10</v>
@@ -9292,35 +9412,35 @@
       <c r="R19" t="s">
         <v>316</v>
       </c>
-      <c r="S19" s="12">
+      <c r="S19" s="10">
         <v>10000</v>
       </c>
-      <c r="T19" s="12">
+      <c r="T19" s="10">
         <v>68000</v>
       </c>
-      <c r="U19" s="12">
+      <c r="U19" s="10">
         <v>15000</v>
       </c>
-      <c r="V19" s="12">
+      <c r="V19" s="10">
         <v>110000</v>
       </c>
-      <c r="W19" s="12">
+      <c r="W19" s="10">
         <v>210000</v>
       </c>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12">
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10">
         <f t="shared" si="38"/>
         <v>188000</v>
       </c>
-      <c r="AA19" s="12">
+      <c r="AA19" s="10">
         <f>B19+S19</f>
         <v>126212.5</v>
       </c>
-      <c r="AB19" s="12">
+      <c r="AB19" s="10">
         <f>C19+T19</f>
         <v>126125</v>
       </c>
-      <c r="AC19" s="12">
+      <c r="AC19" s="10">
         <f>E19+V19</f>
         <v>123500</v>
       </c>
@@ -9329,34 +9449,34 @@
       <c r="A20" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>753200</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>303470.75</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>73179.25</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>166408.25</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="10">
         <v>1065729</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <f t="shared" si="37"/>
         <v>1223079</v>
       </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
       <c r="Q20">
         <f>Q19+5</f>
         <v>15</v>
@@ -9364,35 +9484,35 @@
       <c r="R20" t="s">
         <v>317</v>
       </c>
-      <c r="S20" s="12">
+      <c r="S20" s="10">
         <v>50000</v>
       </c>
-      <c r="T20" s="12">
+      <c r="T20" s="10">
         <v>500000</v>
       </c>
-      <c r="U20" s="12">
+      <c r="U20" s="10">
         <v>73000</v>
       </c>
-      <c r="V20" s="12">
+      <c r="V20" s="10">
         <v>630000</v>
       </c>
-      <c r="W20" s="12">
+      <c r="W20" s="10">
         <v>1100000</v>
       </c>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12">
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10">
         <f t="shared" si="38"/>
         <v>1180000</v>
       </c>
-      <c r="AA20" s="12">
+      <c r="AA20" s="10">
         <f>B20+S20</f>
         <v>803200</v>
       </c>
-      <c r="AB20" s="12">
+      <c r="AB20" s="10">
         <f>C20+T20</f>
         <v>803470.75</v>
       </c>
-      <c r="AC20" s="12">
+      <c r="AC20" s="10">
         <f>E20+V20</f>
         <v>796408.25</v>
       </c>
@@ -9401,34 +9521,34 @@
       <c r="A21" t="s">
         <v>284</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>894598</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>756008</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>107563</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>129685</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="10">
         <v>1916270</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
         <f t="shared" si="37"/>
         <v>1780291</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
       <c r="Q21">
         <f t="shared" ref="Q21:Q22" si="39">Q20+5</f>
         <v>20</v>
@@ -9436,35 +9556,35 @@
       <c r="R21" t="s">
         <v>318</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="10">
         <v>300000</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="10">
         <v>400000</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="10">
         <v>110000</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="10">
         <v>1100000</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W21" s="10">
         <v>1900000</v>
       </c>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12">
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10">
         <f t="shared" ref="Y21:Y22" si="40">SUM(S21:T21,V21)</f>
         <v>1800000</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AA21" s="10">
         <f t="shared" ref="AA21:AA22" si="41">B21+S21</f>
         <v>1194598</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AB21" s="10">
         <f t="shared" ref="AB21:AB22" si="42">C21+T21</f>
         <v>1156008</v>
       </c>
-      <c r="AC21" s="12">
+      <c r="AC21" s="10">
         <f t="shared" ref="AC21:AC22" si="43">E21+V21</f>
         <v>1229685</v>
       </c>
@@ -9473,34 +9593,34 @@
       <c r="A22" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>469480</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>656480</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>81120</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>40000</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="10">
         <v>1808880</v>
       </c>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10">
         <f t="shared" si="37"/>
         <v>1165960</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
       <c r="Q22">
         <f t="shared" si="39"/>
         <v>25</v>
@@ -9508,35 +9628,35 @@
       <c r="R22" t="s">
         <v>319</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="10">
         <v>400000</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="10">
         <v>150000</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="10">
         <v>80000</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="10">
         <v>750000</v>
       </c>
-      <c r="W22" s="12">
+      <c r="W22" s="10">
         <v>1800000</v>
       </c>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12">
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10">
         <f t="shared" si="40"/>
         <v>1300000</v>
       </c>
-      <c r="AA22" s="12">
+      <c r="AA22" s="10">
         <f t="shared" si="41"/>
         <v>869480</v>
       </c>
-      <c r="AB22" s="12">
+      <c r="AB22" s="10">
         <f t="shared" si="42"/>
         <v>806480</v>
       </c>
-      <c r="AC22" s="12">
+      <c r="AC22" s="10">
         <f t="shared" si="43"/>
         <v>790000</v>
       </c>
@@ -9556,61 +9676,61 @@
       <c r="A25" t="s">
         <v>299</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>298</v>
       </c>
       <c r="Q25" t="s">
         <v>311</v>
       </c>
-      <c r="R25" s="9" t="s">
+      <c r="R25" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="S25" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="T25" s="9" t="s">
+      <c r="T25" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="U25" s="9" t="s">
+      <c r="U25" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="V25" s="9" t="s">
+      <c r="V25" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="W25" s="9" t="s">
+      <c r="W25" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="X25" s="9" t="s">
+      <c r="X25" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="AA25" s="9" t="s">
+      <c r="AA25" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="AB25" s="9" t="s">
+      <c r="AB25" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="AC25" s="9" t="s">
+      <c r="AC25" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="AD25" s="9" t="s">
+      <c r="AD25" s="8" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9618,91 +9738,91 @@
       <c r="A26" t="s">
         <v>280</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <v>1070</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>535</v>
       </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12">
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
         <f>SUM(B26:C26,E26)</f>
         <v>1605</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
-      <c r="R26" s="13">
+      <c r="R26" s="11">
         <v>4</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S26" s="10">
         <f t="shared" ref="S26:X26" si="44">SUM(S3:S6)</f>
         <v>400</v>
       </c>
-      <c r="T26" s="12">
+      <c r="T26" s="10">
         <f t="shared" si="44"/>
         <v>800</v>
       </c>
-      <c r="U26" s="12">
+      <c r="U26" s="10">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="V26" s="12">
+      <c r="V26" s="10">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="W26" s="12">
+      <c r="W26" s="10">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="X26" s="12">
+      <c r="X26" s="10">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="12">
+      <c r="AA26" s="10">
         <f>B26+S26</f>
         <v>1470</v>
       </c>
-      <c r="AB26" s="12">
+      <c r="AB26" s="10">
         <f>C26+T26</f>
         <v>1335</v>
       </c>
-      <c r="AC26" s="12">
+      <c r="AC26" s="10">
         <f>E26+V26</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="12"/>
+      <c r="AD26" s="10"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <v>36075</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>12025</v>
       </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="12">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12">
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <f t="shared" ref="H27" si="45">SUM(B27:C27,E27)</f>
         <v>48100</v>
       </c>
@@ -9713,56 +9833,56 @@
       <c r="R27" t="s">
         <v>321</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="10">
         <f t="shared" ref="S27:X27" si="46">SUM(S3:S8)+SUM(S3:S6)*4</f>
         <v>4500</v>
       </c>
-      <c r="T27" s="12">
+      <c r="T27" s="10">
         <f t="shared" si="46"/>
         <v>8000</v>
       </c>
-      <c r="U27" s="12">
+      <c r="U27" s="10">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="V27" s="12">
+      <c r="V27" s="10">
         <f t="shared" si="46"/>
         <v>20000</v>
       </c>
-      <c r="W27" s="12">
+      <c r="W27" s="10">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="X27" s="12">
+      <c r="X27" s="10">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="12"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <v>11890</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>4100</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>4100</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>8200</v>
       </c>
-      <c r="F28" s="12">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12">
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
         <f>SUM(B28:C28,E28)+H27</f>
         <v>72290</v>
       </c>
@@ -9773,65 +9893,65 @@
       <c r="R28" t="s">
         <v>321</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S28" s="10">
         <f t="shared" ref="S28:X28" si="47">SUM(S3:S8)+SUM(S3:S6)*4</f>
         <v>4500</v>
       </c>
-      <c r="T28" s="12">
+      <c r="T28" s="10">
         <f t="shared" si="47"/>
         <v>8000</v>
       </c>
-      <c r="U28" s="12">
+      <c r="U28" s="10">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="V28" s="12">
+      <c r="V28" s="10">
         <f t="shared" si="47"/>
         <v>20000</v>
       </c>
-      <c r="W28" s="12">
+      <c r="W28" s="10">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="X28" s="12">
+      <c r="X28" s="10">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="12">
+      <c r="AA28" s="10">
         <f>B28+S28+B27</f>
         <v>52465</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AB28" s="10">
         <f>C28+T28+C27</f>
         <v>24125</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AC28" s="10">
         <f>E28+V28+E27</f>
         <v>28200</v>
       </c>
-      <c r="AD28" s="12"/>
+      <c r="AD28" s="10"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>282</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="10">
         <v>116212.5</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>58125</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>14962.5</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <v>13500</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="10">
         <v>210568.5</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
         <f t="shared" ref="H29:H32" si="48">SUM(B29:C29,E29)</f>
         <v>187837.5</v>
       </c>
@@ -9842,43 +9962,43 @@
       <c r="R29" t="s">
         <v>316</v>
       </c>
-      <c r="S29" s="12">
+      <c r="S29" s="10">
         <f t="shared" ref="S29:X29" si="49">SUM(S3:S10)+SUM(S3:S8)*4+SUM(S3:S6)*5</f>
         <v>32350</v>
       </c>
-      <c r="T29" s="12">
+      <c r="T29" s="10">
         <f t="shared" si="49"/>
         <v>47600</v>
       </c>
-      <c r="U29" s="12">
+      <c r="U29" s="10">
         <f t="shared" si="49"/>
         <v>2800</v>
       </c>
-      <c r="V29" s="12">
+      <c r="V29" s="10">
         <f t="shared" si="49"/>
         <v>128000</v>
       </c>
-      <c r="W29" s="12">
+      <c r="W29" s="10">
         <f t="shared" si="49"/>
         <v>56000</v>
       </c>
-      <c r="X29" s="12">
+      <c r="X29" s="10">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="12">
+      <c r="AA29" s="10">
         <f>B29+S29</f>
         <v>148562.5</v>
       </c>
-      <c r="AB29" s="12">
+      <c r="AB29" s="10">
         <f>C29+T29</f>
         <v>105725</v>
       </c>
-      <c r="AC29" s="12">
+      <c r="AC29" s="10">
         <f>E29+V29</f>
         <v>141500</v>
       </c>
-      <c r="AD29" s="12">
+      <c r="AD29" s="10">
         <f t="shared" ref="AD29:AD32" si="50">F29+W29</f>
         <v>266568.5</v>
       </c>
@@ -9887,23 +10007,23 @@
       <c r="A30" t="s">
         <v>283</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="10">
         <v>753200</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>303470.75</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>73179.25</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <v>166408.25</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="10">
         <v>1065729</v>
       </c>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12">
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
         <f t="shared" si="48"/>
         <v>1223079</v>
       </c>
@@ -9914,43 +10034,43 @@
       <c r="R30" t="s">
         <v>317</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="10">
         <f t="shared" ref="S30:X30" si="51">SUM(S3:S12)+SUM(S3:S10)*4+SUM(S3:S8)*5+SUM(S3:S6)*5</f>
         <v>150426</v>
       </c>
-      <c r="T30" s="12">
+      <c r="T30" s="10">
         <f t="shared" si="51"/>
         <v>189600</v>
       </c>
-      <c r="U30" s="12">
+      <c r="U30" s="10">
         <f t="shared" si="51"/>
         <v>18320</v>
       </c>
-      <c r="V30" s="12">
+      <c r="V30" s="10">
         <f t="shared" si="51"/>
         <v>412000</v>
       </c>
-      <c r="W30" s="12">
+      <c r="W30" s="10">
         <f t="shared" si="51"/>
         <v>371800</v>
       </c>
-      <c r="X30" s="12">
+      <c r="X30" s="10">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="12">
+      <c r="AA30" s="10">
         <f>B30+S30</f>
         <v>903626</v>
       </c>
-      <c r="AB30" s="12">
+      <c r="AB30" s="10">
         <f>C30+T30</f>
         <v>493070.75</v>
       </c>
-      <c r="AC30" s="12">
+      <c r="AC30" s="10">
         <f>E30+V30</f>
         <v>578408.25</v>
       </c>
-      <c r="AD30" s="12">
+      <c r="AD30" s="10">
         <f t="shared" si="50"/>
         <v>1437529</v>
       </c>
@@ -9959,23 +10079,23 @@
       <c r="A31" t="s">
         <v>284</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="10">
         <v>894598</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>756008</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>107563</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <v>129685</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="10">
         <v>1916270</v>
       </c>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
         <f t="shared" si="48"/>
         <v>1780291</v>
       </c>
@@ -9986,43 +10106,43 @@
       <c r="R31" t="s">
         <v>318</v>
       </c>
-      <c r="S31" s="12">
+      <c r="S31" s="10">
         <f t="shared" ref="S31:X31" si="53">SUM(S3:S12)*5+SUM(S3:S10)*5+SUM(S3:S8)*5+SUM(S3:S6)*5</f>
         <v>404880</v>
       </c>
-      <c r="T31" s="12">
+      <c r="T31" s="10">
         <f t="shared" si="53"/>
         <v>470000</v>
       </c>
-      <c r="U31" s="12">
+      <c r="U31" s="10">
         <f t="shared" si="53"/>
         <v>49600</v>
       </c>
-      <c r="V31" s="12">
+      <c r="V31" s="10">
         <f t="shared" si="53"/>
         <v>940000</v>
       </c>
-      <c r="W31" s="12">
+      <c r="W31" s="10">
         <f t="shared" si="53"/>
         <v>1019000</v>
       </c>
-      <c r="X31" s="12">
+      <c r="X31" s="10">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="12">
+      <c r="AA31" s="10">
         <f t="shared" ref="AA31:AA32" si="54">B31+S31</f>
         <v>1299478</v>
       </c>
-      <c r="AB31" s="12">
+      <c r="AB31" s="10">
         <f t="shared" ref="AB31:AB32" si="55">C31+T31</f>
         <v>1226008</v>
       </c>
-      <c r="AC31" s="12">
+      <c r="AC31" s="10">
         <f t="shared" ref="AC31:AC32" si="56">E31+V31</f>
         <v>1069685</v>
       </c>
-      <c r="AD31" s="12">
+      <c r="AD31" s="10">
         <f t="shared" si="50"/>
         <v>2935270</v>
       </c>
@@ -10031,23 +10151,23 @@
       <c r="A32" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>469480</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>656480</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>81120</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <v>40000</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="10">
         <v>1808880</v>
       </c>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12">
+      <c r="G32" s="10"/>
+      <c r="H32" s="10">
         <f t="shared" si="48"/>
         <v>1165960</v>
       </c>
@@ -10058,43 +10178,43 @@
       <c r="R32" t="s">
         <v>319</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="10">
         <f t="shared" ref="S32:X32" si="57">SUM(S3:S12)*10+SUM(S3:S10)*5+SUM(S3:S8)*5+SUM(S3:S6)*5</f>
         <v>699510</v>
       </c>
-      <c r="T32" s="12">
+      <c r="T32" s="10">
         <f t="shared" si="57"/>
         <v>790000</v>
       </c>
-      <c r="U32" s="12">
+      <c r="U32" s="10">
         <f t="shared" si="57"/>
         <v>85200</v>
       </c>
-      <c r="V32" s="12">
+      <c r="V32" s="10">
         <f t="shared" si="57"/>
         <v>1540000</v>
       </c>
-      <c r="W32" s="12">
+      <c r="W32" s="10">
         <f t="shared" si="57"/>
         <v>1758000</v>
       </c>
-      <c r="X32" s="12">
+      <c r="X32" s="10">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="12">
+      <c r="AA32" s="10">
         <f t="shared" si="54"/>
         <v>1168990</v>
       </c>
-      <c r="AB32" s="12">
+      <c r="AB32" s="10">
         <f t="shared" si="55"/>
         <v>1446480</v>
       </c>
-      <c r="AC32" s="12">
+      <c r="AC32" s="10">
         <f t="shared" si="56"/>
         <v>1580000</v>
       </c>
-      <c r="AD32" s="12">
+      <c r="AD32" s="10">
         <f t="shared" si="50"/>
         <v>3566880</v>
       </c>
@@ -10241,11 +10361,11 @@
       <c r="A14" t="s">
         <v>359</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>SQRT(B13/3.14)</f>
         <v>7.0541580997887543</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <f>SQRT(C13/3.14)</f>
         <v>70.541580997887536</v>
       </c>
